--- a/Symphony/2021/May/All Details/05.05.2021/MC Bank Statement May-2021.xlsx
+++ b/Symphony/2021/May/All Details/05.05.2021/MC Bank Statement May-2021.xlsx
@@ -2630,6 +2630,12 @@
     <xf numFmtId="2" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2642,45 +2648,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2758,12 +2764,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3431,33 +3431,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="289"/>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="289"/>
+      <c r="A1" s="291"/>
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="290"/>
-      <c r="B2" s="287" t="s">
+      <c r="A2" s="292"/>
+      <c r="B2" s="289" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="287"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="289"/>
+      <c r="E2" s="289"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="290"/>
-      <c r="B3" s="288" t="s">
+      <c r="A3" s="292"/>
+      <c r="B3" s="290" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="288"/>
-      <c r="D3" s="288"/>
-      <c r="E3" s="288"/>
+      <c r="C3" s="290"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="290"/>
+      <c r="A4" s="292"/>
       <c r="B4" s="34" t="s">
         <v>0</v>
       </c>
@@ -3475,7 +3475,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="290"/>
+      <c r="A5" s="292"/>
       <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
@@ -3493,7 +3493,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="290"/>
+      <c r="A6" s="292"/>
       <c r="B6" s="38"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -3505,7 +3505,7 @@
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="290"/>
+      <c r="A7" s="292"/>
       <c r="B7" s="38" t="s">
         <v>118</v>
       </c>
@@ -3524,7 +3524,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="290"/>
+      <c r="A8" s="292"/>
       <c r="B8" s="38" t="s">
         <v>119</v>
       </c>
@@ -3543,7 +3543,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="290"/>
+      <c r="A9" s="292"/>
       <c r="B9" s="38" t="s">
         <v>122</v>
       </c>
@@ -3562,7 +3562,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="290"/>
+      <c r="A10" s="292"/>
       <c r="B10" s="38" t="s">
         <v>123</v>
       </c>
@@ -3581,7 +3581,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="290"/>
+      <c r="A11" s="292"/>
       <c r="B11" s="38" t="s">
         <v>124</v>
       </c>
@@ -3600,7 +3600,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="290"/>
+      <c r="A12" s="292"/>
       <c r="B12" s="38" t="s">
         <v>125</v>
       </c>
@@ -3619,7 +3619,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="290"/>
+      <c r="A13" s="292"/>
       <c r="B13" s="38" t="s">
         <v>127</v>
       </c>
@@ -3638,7 +3638,7 @@
       <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="290"/>
+      <c r="A14" s="292"/>
       <c r="B14" s="38" t="s">
         <v>128</v>
       </c>
@@ -3657,7 +3657,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="290"/>
+      <c r="A15" s="292"/>
       <c r="B15" s="38" t="s">
         <v>129</v>
       </c>
@@ -3676,7 +3676,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="290"/>
+      <c r="A16" s="292"/>
       <c r="B16" s="38"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
@@ -3689,7 +3689,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="290"/>
+      <c r="A17" s="292"/>
       <c r="B17" s="38"/>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -3702,7 +3702,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="290"/>
+      <c r="A18" s="292"/>
       <c r="B18" s="38"/>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
@@ -3715,7 +3715,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="290"/>
+      <c r="A19" s="292"/>
       <c r="B19" s="38"/>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
@@ -3728,7 +3728,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="290"/>
+      <c r="A20" s="292"/>
       <c r="B20" s="38"/>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
@@ -3741,7 +3741,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="290"/>
+      <c r="A21" s="292"/>
       <c r="B21" s="38"/>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
@@ -3754,7 +3754,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="290"/>
+      <c r="A22" s="292"/>
       <c r="B22" s="38"/>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
@@ -3767,7 +3767,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="290"/>
+      <c r="A23" s="292"/>
       <c r="B23" s="38"/>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
@@ -3780,7 +3780,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="290"/>
+      <c r="A24" s="292"/>
       <c r="B24" s="38"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
@@ -3793,7 +3793,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="290"/>
+      <c r="A25" s="292"/>
       <c r="B25" s="38"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
@@ -3806,7 +3806,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="290"/>
+      <c r="A26" s="292"/>
       <c r="B26" s="38"/>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
@@ -3819,7 +3819,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="290"/>
+      <c r="A27" s="292"/>
       <c r="B27" s="38"/>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
@@ -3832,7 +3832,7 @@
       <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="290"/>
+      <c r="A28" s="292"/>
       <c r="B28" s="38"/>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
@@ -3845,7 +3845,7 @@
       <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="290"/>
+      <c r="A29" s="292"/>
       <c r="B29" s="38"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
@@ -3858,7 +3858,7 @@
       <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="290"/>
+      <c r="A30" s="292"/>
       <c r="B30" s="38"/>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
@@ -3871,7 +3871,7 @@
       <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="290"/>
+      <c r="A31" s="292"/>
       <c r="B31" s="38"/>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
@@ -3884,7 +3884,7 @@
       <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="290"/>
+      <c r="A32" s="292"/>
       <c r="B32" s="38"/>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
@@ -3897,7 +3897,7 @@
       <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="290"/>
+      <c r="A33" s="292"/>
       <c r="B33" s="38"/>
       <c r="C33" s="37"/>
       <c r="D33" s="40"/>
@@ -3910,7 +3910,7 @@
       <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="290"/>
+      <c r="A34" s="292"/>
       <c r="B34" s="38"/>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
@@ -3923,7 +3923,7 @@
       <c r="H34" s="33"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="290"/>
+      <c r="A35" s="292"/>
       <c r="B35" s="38"/>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
@@ -3936,7 +3936,7 @@
       <c r="H35" s="33"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="290"/>
+      <c r="A36" s="292"/>
       <c r="B36" s="38"/>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
@@ -3949,7 +3949,7 @@
       <c r="H36" s="33"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="290"/>
+      <c r="A37" s="292"/>
       <c r="B37" s="38"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
@@ -3962,7 +3962,7 @@
       <c r="H37" s="33"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="290"/>
+      <c r="A38" s="292"/>
       <c r="B38" s="38"/>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
@@ -3975,7 +3975,7 @@
       <c r="H38" s="33"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="290"/>
+      <c r="A39" s="292"/>
       <c r="B39" s="38"/>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
@@ -3988,7 +3988,7 @@
       <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="290"/>
+      <c r="A40" s="292"/>
       <c r="B40" s="38"/>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
@@ -4001,7 +4001,7 @@
       <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="290"/>
+      <c r="A41" s="292"/>
       <c r="B41" s="38"/>
       <c r="C41" s="37"/>
       <c r="D41" s="37"/>
@@ -4014,7 +4014,7 @@
       <c r="H41" s="33"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="290"/>
+      <c r="A42" s="292"/>
       <c r="B42" s="38"/>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
@@ -4027,7 +4027,7 @@
       <c r="H42" s="33"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="290"/>
+      <c r="A43" s="292"/>
       <c r="B43" s="38"/>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
@@ -4040,7 +4040,7 @@
       <c r="H43" s="33"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="290"/>
+      <c r="A44" s="292"/>
       <c r="B44" s="38"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
@@ -4053,7 +4053,7 @@
       <c r="H44" s="33"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="290"/>
+      <c r="A45" s="292"/>
       <c r="B45" s="38"/>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
@@ -4066,7 +4066,7 @@
       <c r="H45" s="33"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="290"/>
+      <c r="A46" s="292"/>
       <c r="B46" s="38"/>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
@@ -4079,7 +4079,7 @@
       <c r="H46" s="33"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="290"/>
+      <c r="A47" s="292"/>
       <c r="B47" s="38"/>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
@@ -4092,7 +4092,7 @@
       <c r="H47" s="33"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="290"/>
+      <c r="A48" s="292"/>
       <c r="B48" s="38"/>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
@@ -4105,7 +4105,7 @@
       <c r="H48" s="33"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="290"/>
+      <c r="A49" s="292"/>
       <c r="B49" s="38"/>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
@@ -4118,7 +4118,7 @@
       <c r="H49" s="33"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="290"/>
+      <c r="A50" s="292"/>
       <c r="B50" s="38"/>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
@@ -4131,7 +4131,7 @@
       <c r="H50" s="33"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="290"/>
+      <c r="A51" s="292"/>
       <c r="B51" s="38"/>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
@@ -4144,7 +4144,7 @@
       <c r="H51" s="33"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="290"/>
+      <c r="A52" s="292"/>
       <c r="B52" s="38"/>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
@@ -4157,7 +4157,7 @@
       <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="290"/>
+      <c r="A53" s="292"/>
       <c r="B53" s="38"/>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
@@ -4170,7 +4170,7 @@
       <c r="H53" s="33"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="290"/>
+      <c r="A54" s="292"/>
       <c r="B54" s="38"/>
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
@@ -4183,7 +4183,7 @@
       <c r="H54" s="33"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="290"/>
+      <c r="A55" s="292"/>
       <c r="B55" s="38"/>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
@@ -4195,7 +4195,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="290"/>
+      <c r="A56" s="292"/>
       <c r="B56" s="38"/>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
@@ -4207,7 +4207,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="290"/>
+      <c r="A57" s="292"/>
       <c r="B57" s="38"/>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
@@ -4219,7 +4219,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="290"/>
+      <c r="A58" s="292"/>
       <c r="B58" s="38"/>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
@@ -4231,7 +4231,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="290"/>
+      <c r="A59" s="292"/>
       <c r="B59" s="38"/>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
@@ -4243,7 +4243,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="290"/>
+      <c r="A60" s="292"/>
       <c r="B60" s="38"/>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
@@ -4255,7 +4255,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="290"/>
+      <c r="A61" s="292"/>
       <c r="B61" s="38"/>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
@@ -4267,7 +4267,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="290"/>
+      <c r="A62" s="292"/>
       <c r="B62" s="38"/>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
@@ -4279,7 +4279,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="290"/>
+      <c r="A63" s="292"/>
       <c r="B63" s="38"/>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
@@ -4291,7 +4291,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="290"/>
+      <c r="A64" s="292"/>
       <c r="B64" s="38"/>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
@@ -4303,7 +4303,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="290"/>
+      <c r="A65" s="292"/>
       <c r="B65" s="38"/>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
@@ -4315,7 +4315,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="290"/>
+      <c r="A66" s="292"/>
       <c r="B66" s="38"/>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
@@ -4327,7 +4327,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="290"/>
+      <c r="A67" s="292"/>
       <c r="B67" s="38"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
@@ -4339,7 +4339,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="290"/>
+      <c r="A68" s="292"/>
       <c r="B68" s="38"/>
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
@@ -4351,7 +4351,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="290"/>
+      <c r="A69" s="292"/>
       <c r="B69" s="38"/>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
@@ -4363,7 +4363,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="290"/>
+      <c r="A70" s="292"/>
       <c r="B70" s="38"/>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
@@ -4375,7 +4375,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="290"/>
+      <c r="A71" s="292"/>
       <c r="B71" s="38"/>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
@@ -4387,7 +4387,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="290"/>
+      <c r="A72" s="292"/>
       <c r="B72" s="38"/>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
@@ -4399,7 +4399,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="290"/>
+      <c r="A73" s="292"/>
       <c r="B73" s="38"/>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
@@ -4411,7 +4411,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="290"/>
+      <c r="A74" s="292"/>
       <c r="B74" s="38"/>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
@@ -4423,7 +4423,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="290"/>
+      <c r="A75" s="292"/>
       <c r="B75" s="38"/>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
@@ -4435,7 +4435,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="290"/>
+      <c r="A76" s="292"/>
       <c r="B76" s="38"/>
       <c r="C76" s="37"/>
       <c r="D76" s="37"/>
@@ -4447,7 +4447,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="290"/>
+      <c r="A77" s="292"/>
       <c r="B77" s="38"/>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
@@ -4459,7 +4459,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="290"/>
+      <c r="A78" s="292"/>
       <c r="B78" s="38"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37"/>
@@ -4471,7 +4471,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="290"/>
+      <c r="A79" s="292"/>
       <c r="B79" s="38"/>
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
@@ -4483,7 +4483,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="290"/>
+      <c r="A80" s="292"/>
       <c r="B80" s="38"/>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
@@ -4495,7 +4495,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="290"/>
+      <c r="A81" s="292"/>
       <c r="B81" s="38"/>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
@@ -4507,7 +4507,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="290"/>
+      <c r="A82" s="292"/>
       <c r="B82" s="38"/>
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
@@ -4519,7 +4519,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="290"/>
+      <c r="A83" s="292"/>
       <c r="B83" s="43"/>
       <c r="C83" s="39">
         <f>SUM(C5:C72)</f>
@@ -4576,33 +4576,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="289"/>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="289"/>
+      <c r="A1" s="291"/>
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="290"/>
-      <c r="B2" s="287" t="s">
+      <c r="A2" s="292"/>
+      <c r="B2" s="289" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="287"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="289"/>
+      <c r="E2" s="289"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="290"/>
-      <c r="B3" s="288" t="s">
+      <c r="A3" s="292"/>
+      <c r="B3" s="290" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="288"/>
-      <c r="D3" s="288"/>
-      <c r="E3" s="288"/>
+      <c r="C3" s="290"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="290"/>
+      <c r="A4" s="292"/>
       <c r="B4" s="34" t="s">
         <v>0</v>
       </c>
@@ -4620,7 +4620,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="290"/>
+      <c r="A5" s="292"/>
       <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
@@ -4638,7 +4638,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="290"/>
+      <c r="A6" s="292"/>
       <c r="B6" s="38"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -4650,7 +4650,7 @@
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="290"/>
+      <c r="A7" s="292"/>
       <c r="B7" s="38" t="s">
         <v>175</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="290"/>
+      <c r="A8" s="292"/>
       <c r="B8" s="38" t="s">
         <v>178</v>
       </c>
@@ -4688,7 +4688,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="290"/>
+      <c r="A9" s="292"/>
       <c r="B9" s="38" t="s">
         <v>181</v>
       </c>
@@ -4707,7 +4707,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="290"/>
+      <c r="A10" s="292"/>
       <c r="B10" s="38" t="s">
         <v>184</v>
       </c>
@@ -4726,7 +4726,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="290"/>
+      <c r="A11" s="292"/>
       <c r="B11" s="38" t="s">
         <v>189</v>
       </c>
@@ -4745,7 +4745,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="290"/>
+      <c r="A12" s="292"/>
       <c r="B12" s="38"/>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
@@ -4758,7 +4758,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="290"/>
+      <c r="A13" s="292"/>
       <c r="B13" s="38"/>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
@@ -4771,7 +4771,7 @@
       <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="290"/>
+      <c r="A14" s="292"/>
       <c r="B14" s="38"/>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
@@ -4784,7 +4784,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="290"/>
+      <c r="A15" s="292"/>
       <c r="B15" s="38"/>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
@@ -4797,7 +4797,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="290"/>
+      <c r="A16" s="292"/>
       <c r="B16" s="38"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
@@ -4810,7 +4810,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="290"/>
+      <c r="A17" s="292"/>
       <c r="B17" s="38"/>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -4823,7 +4823,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="290"/>
+      <c r="A18" s="292"/>
       <c r="B18" s="38"/>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
@@ -4836,7 +4836,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="290"/>
+      <c r="A19" s="292"/>
       <c r="B19" s="38"/>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
@@ -4849,7 +4849,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="290"/>
+      <c r="A20" s="292"/>
       <c r="B20" s="38"/>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
@@ -4862,7 +4862,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="290"/>
+      <c r="A21" s="292"/>
       <c r="B21" s="38"/>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
@@ -4875,7 +4875,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="290"/>
+      <c r="A22" s="292"/>
       <c r="B22" s="38"/>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
@@ -4888,7 +4888,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="290"/>
+      <c r="A23" s="292"/>
       <c r="B23" s="38"/>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
@@ -4901,7 +4901,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="290"/>
+      <c r="A24" s="292"/>
       <c r="B24" s="38"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
@@ -4914,7 +4914,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="290"/>
+      <c r="A25" s="292"/>
       <c r="B25" s="38"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
@@ -4927,7 +4927,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="290"/>
+      <c r="A26" s="292"/>
       <c r="B26" s="38"/>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
@@ -4940,7 +4940,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="290"/>
+      <c r="A27" s="292"/>
       <c r="B27" s="38"/>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
@@ -4953,7 +4953,7 @@
       <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="290"/>
+      <c r="A28" s="292"/>
       <c r="B28" s="38"/>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
@@ -4966,7 +4966,7 @@
       <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="290"/>
+      <c r="A29" s="292"/>
       <c r="B29" s="38"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
@@ -4979,7 +4979,7 @@
       <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="290"/>
+      <c r="A30" s="292"/>
       <c r="B30" s="38"/>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
@@ -4992,7 +4992,7 @@
       <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="290"/>
+      <c r="A31" s="292"/>
       <c r="B31" s="38"/>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
@@ -5005,7 +5005,7 @@
       <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="290"/>
+      <c r="A32" s="292"/>
       <c r="B32" s="38"/>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
@@ -5018,7 +5018,7 @@
       <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="290"/>
+      <c r="A33" s="292"/>
       <c r="B33" s="38"/>
       <c r="C33" s="37"/>
       <c r="D33" s="40"/>
@@ -5031,7 +5031,7 @@
       <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="290"/>
+      <c r="A34" s="292"/>
       <c r="B34" s="38"/>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
@@ -5044,7 +5044,7 @@
       <c r="H34" s="33"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="290"/>
+      <c r="A35" s="292"/>
       <c r="B35" s="38"/>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
@@ -5057,7 +5057,7 @@
       <c r="H35" s="33"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="290"/>
+      <c r="A36" s="292"/>
       <c r="B36" s="38"/>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
@@ -5070,7 +5070,7 @@
       <c r="H36" s="33"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="290"/>
+      <c r="A37" s="292"/>
       <c r="B37" s="38"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
@@ -5083,7 +5083,7 @@
       <c r="H37" s="33"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="290"/>
+      <c r="A38" s="292"/>
       <c r="B38" s="38"/>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
@@ -5096,7 +5096,7 @@
       <c r="H38" s="33"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="290"/>
+      <c r="A39" s="292"/>
       <c r="B39" s="38"/>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
@@ -5109,7 +5109,7 @@
       <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="290"/>
+      <c r="A40" s="292"/>
       <c r="B40" s="38"/>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
@@ -5122,7 +5122,7 @@
       <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="290"/>
+      <c r="A41" s="292"/>
       <c r="B41" s="38"/>
       <c r="C41" s="37"/>
       <c r="D41" s="37"/>
@@ -5135,7 +5135,7 @@
       <c r="H41" s="33"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="290"/>
+      <c r="A42" s="292"/>
       <c r="B42" s="38"/>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
@@ -5148,7 +5148,7 @@
       <c r="H42" s="33"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="290"/>
+      <c r="A43" s="292"/>
       <c r="B43" s="38"/>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
@@ -5161,7 +5161,7 @@
       <c r="H43" s="33"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="290"/>
+      <c r="A44" s="292"/>
       <c r="B44" s="38"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
@@ -5174,7 +5174,7 @@
       <c r="H44" s="33"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="290"/>
+      <c r="A45" s="292"/>
       <c r="B45" s="38"/>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
@@ -5187,7 +5187,7 @@
       <c r="H45" s="33"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="290"/>
+      <c r="A46" s="292"/>
       <c r="B46" s="38"/>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
@@ -5200,7 +5200,7 @@
       <c r="H46" s="33"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="290"/>
+      <c r="A47" s="292"/>
       <c r="B47" s="38"/>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
@@ -5213,7 +5213,7 @@
       <c r="H47" s="33"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="290"/>
+      <c r="A48" s="292"/>
       <c r="B48" s="38"/>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
@@ -5226,7 +5226,7 @@
       <c r="H48" s="33"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="290"/>
+      <c r="A49" s="292"/>
       <c r="B49" s="38"/>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
@@ -5239,7 +5239,7 @@
       <c r="H49" s="33"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="290"/>
+      <c r="A50" s="292"/>
       <c r="B50" s="38"/>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
@@ -5252,7 +5252,7 @@
       <c r="H50" s="33"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="290"/>
+      <c r="A51" s="292"/>
       <c r="B51" s="38"/>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
@@ -5265,7 +5265,7 @@
       <c r="H51" s="33"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="290"/>
+      <c r="A52" s="292"/>
       <c r="B52" s="38"/>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
@@ -5278,7 +5278,7 @@
       <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="290"/>
+      <c r="A53" s="292"/>
       <c r="B53" s="38"/>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
@@ -5291,7 +5291,7 @@
       <c r="H53" s="33"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="290"/>
+      <c r="A54" s="292"/>
       <c r="B54" s="38"/>
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
@@ -5304,7 +5304,7 @@
       <c r="H54" s="33"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="290"/>
+      <c r="A55" s="292"/>
       <c r="B55" s="38"/>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
@@ -5316,7 +5316,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="290"/>
+      <c r="A56" s="292"/>
       <c r="B56" s="38"/>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
@@ -5328,7 +5328,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="290"/>
+      <c r="A57" s="292"/>
       <c r="B57" s="38"/>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
@@ -5340,7 +5340,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="290"/>
+      <c r="A58" s="292"/>
       <c r="B58" s="38"/>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
@@ -5352,7 +5352,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="290"/>
+      <c r="A59" s="292"/>
       <c r="B59" s="38"/>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
@@ -5364,7 +5364,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="290"/>
+      <c r="A60" s="292"/>
       <c r="B60" s="38"/>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
@@ -5376,7 +5376,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="290"/>
+      <c r="A61" s="292"/>
       <c r="B61" s="38"/>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
@@ -5388,7 +5388,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="290"/>
+      <c r="A62" s="292"/>
       <c r="B62" s="38"/>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
@@ -5400,7 +5400,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="290"/>
+      <c r="A63" s="292"/>
       <c r="B63" s="38"/>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
@@ -5412,7 +5412,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="290"/>
+      <c r="A64" s="292"/>
       <c r="B64" s="38"/>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
@@ -5424,7 +5424,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="290"/>
+      <c r="A65" s="292"/>
       <c r="B65" s="38"/>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
@@ -5436,7 +5436,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="290"/>
+      <c r="A66" s="292"/>
       <c r="B66" s="38"/>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
@@ -5448,7 +5448,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="290"/>
+      <c r="A67" s="292"/>
       <c r="B67" s="38"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
@@ -5460,7 +5460,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="290"/>
+      <c r="A68" s="292"/>
       <c r="B68" s="38"/>
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
@@ -5472,7 +5472,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="290"/>
+      <c r="A69" s="292"/>
       <c r="B69" s="38"/>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
@@ -5484,7 +5484,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="290"/>
+      <c r="A70" s="292"/>
       <c r="B70" s="38"/>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
@@ -5496,7 +5496,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="290"/>
+      <c r="A71" s="292"/>
       <c r="B71" s="38"/>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
@@ -5508,7 +5508,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="290"/>
+      <c r="A72" s="292"/>
       <c r="B72" s="38"/>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
@@ -5520,7 +5520,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="290"/>
+      <c r="A73" s="292"/>
       <c r="B73" s="38"/>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
@@ -5532,7 +5532,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="290"/>
+      <c r="A74" s="292"/>
       <c r="B74" s="38"/>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
@@ -5544,7 +5544,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="290"/>
+      <c r="A75" s="292"/>
       <c r="B75" s="38"/>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
@@ -5556,7 +5556,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="290"/>
+      <c r="A76" s="292"/>
       <c r="B76" s="38"/>
       <c r="C76" s="37"/>
       <c r="D76" s="37"/>
@@ -5568,7 +5568,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="290"/>
+      <c r="A77" s="292"/>
       <c r="B77" s="38"/>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
@@ -5580,7 +5580,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="290"/>
+      <c r="A78" s="292"/>
       <c r="B78" s="38"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37"/>
@@ -5592,7 +5592,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="290"/>
+      <c r="A79" s="292"/>
       <c r="B79" s="38"/>
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
@@ -5604,7 +5604,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="290"/>
+      <c r="A80" s="292"/>
       <c r="B80" s="38"/>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
@@ -5616,7 +5616,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="290"/>
+      <c r="A81" s="292"/>
       <c r="B81" s="38"/>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
@@ -5628,7 +5628,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="290"/>
+      <c r="A82" s="292"/>
       <c r="B82" s="38"/>
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
@@ -5640,7 +5640,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="290"/>
+      <c r="A83" s="292"/>
       <c r="B83" s="43"/>
       <c r="C83" s="39">
         <f>SUM(C5:C72)</f>
@@ -5767,46 +5767,46 @@
       <c r="B4" s="302" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="304" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="291" t="s">
+      <c r="D4" s="304" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="291" t="s">
+      <c r="E4" s="304" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="291" t="s">
+      <c r="F4" s="304" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="291" t="s">
+      <c r="G4" s="304" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="291" t="s">
+      <c r="H4" s="304" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="291" t="s">
+      <c r="I4" s="304" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="291" t="s">
+      <c r="J4" s="304" t="s">
         <v>89</v>
       </c>
-      <c r="K4" s="291" t="s">
+      <c r="K4" s="304" t="s">
         <v>90</v>
       </c>
-      <c r="L4" s="291" t="s">
+      <c r="L4" s="304" t="s">
         <v>91</v>
       </c>
-      <c r="M4" s="291" t="s">
+      <c r="M4" s="304" t="s">
         <v>92</v>
       </c>
-      <c r="N4" s="291" t="s">
+      <c r="N4" s="304" t="s">
         <v>93</v>
       </c>
       <c r="O4" s="293" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="304" t="s">
+      <c r="P4" s="306" t="s">
         <v>185</v>
       </c>
       <c r="Q4" s="191" t="s">
@@ -5821,20 +5821,20 @@
     <row r="5" spans="1:24" s="192" customFormat="1" ht="13.5" thickBot="1">
       <c r="A5" s="301"/>
       <c r="B5" s="303"/>
-      <c r="C5" s="292"/>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
-      <c r="I5" s="292"/>
-      <c r="J5" s="292"/>
-      <c r="K5" s="292"/>
-      <c r="L5" s="292"/>
-      <c r="M5" s="292"/>
-      <c r="N5" s="292"/>
+      <c r="C5" s="305"/>
+      <c r="D5" s="305"/>
+      <c r="E5" s="305"/>
+      <c r="F5" s="305"/>
+      <c r="G5" s="305"/>
+      <c r="H5" s="305"/>
+      <c r="I5" s="305"/>
+      <c r="J5" s="305"/>
+      <c r="K5" s="305"/>
+      <c r="L5" s="305"/>
+      <c r="M5" s="305"/>
+      <c r="N5" s="305"/>
       <c r="O5" s="294"/>
-      <c r="P5" s="305"/>
+      <c r="P5" s="307"/>
       <c r="Q5" s="196" t="s">
         <v>95</v>
       </c>
@@ -8779,6 +8779,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -8795,9 +8798,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -8810,8 +8810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -8837,14 +8837,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="312" t="s">
+      <c r="A1" s="314" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="314"/>
+      <c r="F1" s="314"/>
       <c r="L1" s="91"/>
       <c r="M1" s="246"/>
       <c r="N1" s="246"/>
@@ -8897,14 +8897,14 @@
       <c r="BI1" s="246"/>
     </row>
     <row r="2" spans="1:61" ht="15">
-      <c r="A2" s="313" t="s">
+      <c r="A2" s="315" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="313"/>
+      <c r="B2" s="315"/>
+      <c r="C2" s="315"/>
+      <c r="D2" s="315"/>
+      <c r="E2" s="315"/>
+      <c r="F2" s="315"/>
       <c r="L2" s="91"/>
       <c r="M2" s="246"/>
       <c r="N2" s="246"/>
@@ -8957,14 +8957,14 @@
       <c r="BI2" s="246"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="314" t="s">
+      <c r="A3" s="316" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="314"/>
-      <c r="C3" s="314"/>
-      <c r="D3" s="314"/>
-      <c r="E3" s="314"/>
-      <c r="F3" s="314"/>
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="316"/>
+      <c r="E3" s="316"/>
+      <c r="F3" s="316"/>
       <c r="K3" s="246"/>
       <c r="L3" s="91"/>
       <c r="M3" s="246"/>
@@ -11178,12 +11178,12 @@
       <c r="BI34" s="246"/>
     </row>
     <row r="35" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A35" s="315" t="s">
+      <c r="A35" s="317" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="316"/>
-      <c r="C35" s="316"/>
-      <c r="D35" s="317"/>
+      <c r="B35" s="318"/>
+      <c r="C35" s="318"/>
+      <c r="D35" s="319"/>
       <c r="E35" s="105"/>
       <c r="F35" s="107"/>
       <c r="G35" s="121"/>
@@ -11744,13 +11744,13 @@
       <c r="C43" s="267"/>
       <c r="D43" s="131"/>
       <c r="E43" s="105"/>
-      <c r="F43" s="318" t="s">
+      <c r="F43" s="320" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="318"/>
-      <c r="H43" s="318"/>
-      <c r="I43" s="318"/>
-      <c r="J43" s="318"/>
+      <c r="G43" s="320"/>
+      <c r="H43" s="320"/>
+      <c r="I43" s="320"/>
+      <c r="J43" s="320"/>
       <c r="K43" s="137"/>
       <c r="L43" s="96"/>
       <c r="M43" s="246"/>
@@ -11928,11 +11928,11 @@
       <c r="BI45" s="246"/>
     </row>
     <row r="46" spans="1:61" ht="13.5" thickTop="1">
-      <c r="A46" s="330" t="s">
+      <c r="A46" s="287" t="s">
         <v>26</v>
       </c>
       <c r="B46" s="140"/>
-      <c r="C46" s="331">
+      <c r="C46" s="288">
         <v>7160</v>
       </c>
       <c r="D46" s="266" t="s">
@@ -13032,10 +13032,10 @@
       <c r="C62" s="142"/>
       <c r="D62" s="149"/>
       <c r="E62" s="113"/>
-      <c r="F62" s="306" t="s">
+      <c r="F62" s="308" t="s">
         <v>109</v>
       </c>
-      <c r="G62" s="306"/>
+      <c r="G62" s="308"/>
       <c r="H62" s="245"/>
       <c r="I62" s="245"/>
       <c r="J62" s="150" t="s">
@@ -13098,10 +13098,10 @@
       <c r="BI62" s="246"/>
     </row>
     <row r="63" spans="1:61">
-      <c r="A63" s="319" t="s">
+      <c r="A63" s="321" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="320"/>
+      <c r="B63" s="322"/>
       <c r="C63" s="142"/>
       <c r="D63" s="143"/>
       <c r="E63" s="104"/>
@@ -17433,10 +17433,10 @@
       <c r="BI118" s="246"/>
     </row>
     <row r="119" spans="1:61">
-      <c r="A119" s="307" t="s">
+      <c r="A119" s="309" t="s">
         <v>78</v>
       </c>
-      <c r="B119" s="308"/>
+      <c r="B119" s="310"/>
       <c r="C119" s="165">
         <f>SUM(C37:C118)</f>
         <v>2613976</v>
@@ -17586,10 +17586,10 @@
       <c r="BI120" s="246"/>
     </row>
     <row r="121" spans="1:61">
-      <c r="A121" s="309" t="s">
+      <c r="A121" s="311" t="s">
         <v>79</v>
       </c>
-      <c r="B121" s="310"/>
+      <c r="B121" s="312"/>
       <c r="C121" s="170">
         <f>C119+L142</f>
         <v>2613976</v>
@@ -19536,8 +19536,8 @@
       <c r="N175" s="250"/>
     </row>
     <row r="176" spans="6:14">
-      <c r="F176" s="311"/>
-      <c r="G176" s="311"/>
+      <c r="F176" s="313"/>
+      <c r="G176" s="313"/>
       <c r="H176" s="246"/>
       <c r="I176" s="111"/>
       <c r="J176" s="91"/>
@@ -20214,24 +20214,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="321" t="s">
+      <c r="A1" s="323" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="322"/>
-      <c r="C1" s="322"/>
-      <c r="D1" s="322"/>
-      <c r="E1" s="323"/>
+      <c r="B1" s="324"/>
+      <c r="C1" s="324"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="325"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="23.25">
-      <c r="A2" s="324" t="s">
+      <c r="A2" s="326" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="325"/>
-      <c r="C2" s="325"/>
-      <c r="D2" s="325"/>
-      <c r="E2" s="326"/>
+      <c r="B2" s="327"/>
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="328"/>
       <c r="F2" s="5"/>
       <c r="G2" s="11"/>
       <c r="H2" s="8"/>
@@ -20704,13 +20704,13 @@
       <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="1:29" ht="22.5">
-      <c r="A15" s="327" t="s">
+      <c r="A15" s="329" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="328"/>
-      <c r="C15" s="328"/>
-      <c r="D15" s="328"/>
-      <c r="E15" s="329"/>
+      <c r="B15" s="330"/>
+      <c r="C15" s="330"/>
+      <c r="D15" s="330"/>
+      <c r="E15" s="331"/>
       <c r="F15" s="5"/>
       <c r="G15" s="9"/>
       <c r="H15" s="27"/>
